--- a/algorithms.xlsx
+++ b/algorithms.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\abslibrary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alrslibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Algs" sheetId="1" r:id="rId1"/>
     <sheet name="Speed" sheetId="2" r:id="rId2"/>
+    <sheet name="Speed (Rank)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -98,8 +99,45 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>asobra01</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>asobra01:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Time to decompose:
+2304x51 Matrix
+or
+48x48x51 Tensor</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="198">
   <si>
     <t>Method</t>
   </si>
@@ -239,9 +277,6 @@
     <t xml:space="preserve">Non-negative Matrix Factorization with sparse matrix (Ji and Eisenstein, 2013) </t>
   </si>
   <si>
-    <t xml:space="preserve">Semi Non-negative Matrix Factorization (Trigeorgis et al. 2014) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Deep Semi Non-negative Matrix Factorization (Trigeorgis et al. 2014) </t>
   </si>
   <si>
@@ -684,6 +719,18 @@
   </si>
   <si>
     <t>Active Subspace: Towards Scalable Low-Rank Learning (Liu and Yan, 2012)</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>CPU Time (in sec)</t>
+  </si>
+  <si>
+    <t>Speed classification</t>
+  </si>
+  <si>
+    <t>Semi Non-negative Matrix Factorization</t>
   </si>
 </sst>
 </file>
@@ -794,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -869,6 +916,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,9 +1215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:E31"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1178,15 +1239,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>4</v>
@@ -1195,15 +1256,15 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>5</v>
@@ -1212,32 +1273,32 @@
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>194</v>
-      </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>6</v>
@@ -1246,15 +1307,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>7</v>
@@ -1263,15 +1324,15 @@
         <v>3</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>8</v>
@@ -1280,15 +1341,15 @@
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>9</v>
@@ -1297,15 +1358,15 @@
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>10</v>
@@ -1314,15 +1375,15 @@
         <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>11</v>
@@ -1331,15 +1392,15 @@
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>12</v>
@@ -1348,15 +1409,15 @@
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>13</v>
@@ -1365,15 +1426,15 @@
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>14</v>
@@ -1382,15 +1443,15 @@
         <v>4</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>15</v>
@@ -1399,15 +1460,15 @@
         <v>5</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>16</v>
@@ -1416,15 +1477,15 @@
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>17</v>
@@ -1433,15 +1494,15 @@
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>18</v>
@@ -1450,15 +1511,15 @@
         <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>19</v>
@@ -1467,15 +1528,15 @@
         <v>1</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>20</v>
@@ -1484,15 +1545,15 @@
         <v>1</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>21</v>
@@ -1501,15 +1562,15 @@
         <v>1</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>22</v>
@@ -1518,15 +1579,15 @@
         <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>23</v>
@@ -1535,15 +1596,15 @@
         <v>4</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>24</v>
@@ -1552,15 +1613,15 @@
         <v>4</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>25</v>
@@ -1569,15 +1630,15 @@
         <v>2</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>26</v>
@@ -1586,15 +1647,15 @@
         <v>2</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>27</v>
@@ -1603,15 +1664,15 @@
         <v>4</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>28</v>
@@ -1620,15 +1681,15 @@
         <v>4</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>29</v>
@@ -1637,15 +1698,15 @@
         <v>2</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>30</v>
@@ -1654,15 +1715,15 @@
         <v>2</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>31</v>
@@ -1671,15 +1732,15 @@
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>32</v>
@@ -1688,15 +1749,15 @@
         <v>1</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>8</v>
@@ -1705,15 +1766,15 @@
         <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>9</v>
@@ -1722,15 +1783,15 @@
         <v>1</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>33</v>
@@ -1739,15 +1800,15 @@
         <v>1</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>34</v>
@@ -1756,15 +1817,15 @@
         <v>1</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>35</v>
@@ -1773,15 +1834,15 @@
         <v>1</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>36</v>
@@ -1790,15 +1851,15 @@
         <v>1</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>37</v>
@@ -1807,15 +1868,15 @@
         <v>1</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>38</v>
@@ -1824,15 +1885,15 @@
         <v>1</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>39</v>
@@ -1841,15 +1902,15 @@
         <v>1</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>40</v>
@@ -1858,15 +1919,15 @@
         <v>2</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>41</v>
@@ -1875,15 +1936,15 @@
         <v>1</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>42</v>
@@ -1892,15 +1953,15 @@
         <v>1</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>43</v>
@@ -1909,15 +1970,15 @@
         <v>1</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>44</v>
@@ -1926,15 +1987,15 @@
         <v>2</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>45</v>
@@ -1943,330 +2004,330 @@
         <v>2</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c r="D47" s="5">
         <v>1</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="25">
         <v>1</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="3">
         <v>2</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="3">
         <v>2</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" s="5">
         <v>1</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="3">
         <v>2</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="3">
         <v>2</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" s="27">
         <v>2</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D55" s="5">
         <v>1</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56" s="3">
         <v>2</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57" s="3">
         <v>2</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" s="7">
         <v>4</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="3">
         <v>2</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60" s="5">
         <v>1</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D61" s="5">
         <v>1</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62" s="7">
         <v>4</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D63" s="7">
         <v>4</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D64" s="3">
         <v>2</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65" s="25">
         <v>1</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2280,9 +2341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2307,15 +2366,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -2329,10 +2388,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -2346,10 +2405,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2363,13 +2422,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -2380,10 +2439,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -2397,13 +2456,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -2414,13 +2473,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -2431,13 +2490,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -2448,10 +2507,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -2465,10 +2524,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
@@ -2482,10 +2541,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -2499,13 +2558,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
@@ -2516,10 +2575,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -2533,10 +2592,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -2550,10 +2609,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -2567,10 +2626,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -2584,10 +2643,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -2601,10 +2660,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -2618,13 +2677,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
@@ -2635,10 +2694,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
         <v>38</v>
@@ -2652,13 +2711,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" t="s">
         <v>193</v>
-      </c>
-      <c r="C22" t="s">
-        <v>194</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
@@ -2669,10 +2728,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -2686,10 +2745,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
@@ -2703,10 +2762,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -2720,10 +2779,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -2737,10 +2796,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
@@ -2754,10 +2813,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
@@ -2771,10 +2830,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -2788,10 +2847,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
@@ -2805,13 +2864,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
@@ -2822,10 +2881,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
@@ -2839,10 +2898,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -2856,10 +2915,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
@@ -2873,10 +2932,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -2890,10 +2949,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
         <v>26</v>
@@ -2907,10 +2966,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -2924,10 +2983,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -2941,10 +3000,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
         <v>45</v>
@@ -2958,10 +3017,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
@@ -2975,10 +3034,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
         <v>30</v>
@@ -2992,10 +3051,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -3009,10 +3068,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
@@ -3026,13 +3085,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" s="3">
         <v>2</v>
@@ -3043,13 +3102,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" s="3">
         <v>2</v>
@@ -3060,10 +3119,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
@@ -3077,10 +3136,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
@@ -3094,13 +3153,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" s="3">
         <v>2</v>
@@ -3111,13 +3170,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D49" s="3">
         <v>2</v>
@@ -3128,13 +3187,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50" s="3">
         <v>2</v>
@@ -3145,10 +3204,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
@@ -3162,13 +3221,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D52" s="3">
         <v>2</v>
@@ -3179,13 +3238,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D53" s="3">
         <v>2</v>
@@ -3196,13 +3255,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D54" s="3">
         <v>2</v>
@@ -3213,13 +3272,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" s="3">
         <v>2</v>
@@ -3230,10 +3289,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -3247,13 +3306,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57" s="7">
         <v>4</v>
@@ -3264,10 +3323,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -3281,13 +3340,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D59" s="7">
         <v>4</v>
@@ -3298,10 +3357,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
@@ -3315,10 +3374,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
         <v>23</v>
@@ -3332,10 +3391,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
         <v>24</v>
@@ -3349,10 +3408,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -3366,13 +3425,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D64" s="7">
         <v>4</v>
@@ -3383,10 +3442,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
@@ -3406,4 +3465,1327 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="29">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="29">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="29">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="29">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="29">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="29">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="29">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="29">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="29">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="29">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="29">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="29">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="29">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="29">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="29">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="29">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="29">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="29">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="29">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="29">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="29">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="29">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="29">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="29">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="29">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="29">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="29">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="29">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="29">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="11">
+        <v>3</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="29">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="7">
+        <v>4</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="29">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="7">
+        <v>4</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="29">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="7">
+        <v>4</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="29">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="7">
+        <v>4</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="29">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="7">
+        <v>4</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="29">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="7">
+        <v>4</v>
+      </c>
+      <c r="F62" s="33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="29">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="7">
+        <v>4</v>
+      </c>
+      <c r="F63" s="33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="29">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="7">
+        <v>4</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="29">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="9">
+        <v>5</v>
+      </c>
+      <c r="F65" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/algorithms.xlsx
+++ b/algorithms.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alrslibrary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\lrslibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10320" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Algs" sheetId="1" r:id="rId1"/>
-    <sheet name="Speed" sheetId="2" r:id="rId2"/>
-    <sheet name="Speed (Rank)" sheetId="3" r:id="rId3"/>
+    <sheet name="CPU" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -68,43 +67,6 @@
     <author>asobra01</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>asobra01:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Time to decompose:
-2304x51 Matrix
-or
-48x48x51 Tensor</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>asobra01</author>
-  </authors>
-  <commentList>
     <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -137,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="201">
   <si>
     <t>Method</t>
   </si>
@@ -731,6 +693,15 @@
   </si>
   <si>
     <t>Semi Non-negative Matrix Factorization</t>
+  </si>
+  <si>
+    <t>SPGL1</t>
+  </si>
+  <si>
+    <t>A variational approach to SPCP (Aravkin et al. 2014)</t>
+  </si>
+  <si>
+    <t>16.60</t>
   </si>
 </sst>
 </file>
@@ -841,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -882,21 +853,6 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1213,7 +1169,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1243,13 +1199,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -1260,13 +1216,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="5">
@@ -1277,13 +1233,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="16" t="s">
         <v>193</v>
       </c>
       <c r="D4" s="5">
@@ -1294,13 +1250,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5">
@@ -1311,13 +1267,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="11">
@@ -1328,13 +1284,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3">
@@ -1345,13 +1301,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="5">
@@ -1362,13 +1318,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="5">
@@ -1379,13 +1335,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="3">
@@ -1396,13 +1352,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="5">
@@ -1413,13 +1369,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="3">
@@ -1430,13 +1386,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="7">
@@ -1447,13 +1403,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="9">
@@ -1464,13 +1420,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="3">
@@ -1481,13 +1437,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="5">
@@ -1498,13 +1454,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="21" t="s">
+      <c r="A17" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="5">
@@ -1515,13 +1471,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="5">
@@ -1532,13 +1488,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="5">
@@ -1549,13 +1505,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="5">
@@ -1566,13 +1522,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="5">
@@ -1583,750 +1539,767 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="11">
+        <v>3</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C23" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="D22" s="7">
-        <v>4</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>24</v>
       </c>
       <c r="D23" s="7">
         <v>4</v>
       </c>
       <c r="E23" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="21" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="3">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="21" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C26" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="21" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C27" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="D26" s="7">
-        <v>4</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="D27" s="7">
         <v>4</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="21" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="21" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C30" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="3">
-        <v>2</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="D30" s="3">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="21" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="23" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C32" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="25">
-        <v>1</v>
-      </c>
-      <c r="E31" s="26" t="s">
+      <c r="D32" s="20">
+        <v>1</v>
+      </c>
+      <c r="E32" s="21" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B33" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C33" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="3">
-        <v>2</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B34" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C34" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="5">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B35" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C35" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="5">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B36" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C36" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="5">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B37" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C37" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="25">
-        <v>1</v>
-      </c>
-      <c r="E36" s="26" t="s">
+      <c r="D37" s="20">
+        <v>1</v>
+      </c>
+      <c r="E37" s="21" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B38" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C38" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="5">
-        <v>1</v>
-      </c>
-      <c r="E37" s="6" t="s">
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B39" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C39" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="5">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6" t="s">
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B40" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C40" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="5">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6" t="s">
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B41" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C41" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="5">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B42" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C42" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="3">
-        <v>2</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="D42" s="3">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B43" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C43" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="5">
-        <v>1</v>
-      </c>
-      <c r="E42" s="6" t="s">
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B44" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C44" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="5">
-        <v>1</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B45" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C45" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="5">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6" t="s">
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B46" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C46" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="3">
-        <v>2</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="D46" s="3">
+        <v>2</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B47" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C47" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="3">
-        <v>2</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="D47" s="3">
+        <v>2</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B48" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C48" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="D47" s="5">
-        <v>1</v>
-      </c>
-      <c r="E47" s="6" t="s">
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B49" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C49" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="25">
-        <v>1</v>
-      </c>
-      <c r="E48" s="26" t="s">
+      <c r="D49" s="20">
+        <v>1</v>
+      </c>
+      <c r="E49" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B50" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C50" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="3">
-        <v>2</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="D50" s="3">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B51" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C51" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="3">
-        <v>2</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="D51" s="3">
+        <v>2</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B52" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C52" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="5">
-        <v>1</v>
-      </c>
-      <c r="E51" s="6" t="s">
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B53" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C53" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="3">
-        <v>2</v>
-      </c>
-      <c r="E52" s="4" t="s">
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B54" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C54" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="3">
-        <v>2</v>
-      </c>
-      <c r="E53" s="4" t="s">
+      <c r="D54" s="3">
+        <v>2</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B55" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C55" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="27">
-        <v>2</v>
-      </c>
-      <c r="E54" s="28" t="s">
+      <c r="D55" s="22">
+        <v>2</v>
+      </c>
+      <c r="E55" s="23" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B56" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C56" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="5">
-        <v>1</v>
-      </c>
-      <c r="E55" s="6" t="s">
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B57" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C57" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="3">
-        <v>2</v>
-      </c>
-      <c r="E56" s="4" t="s">
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B58" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C58" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="3">
-        <v>2</v>
-      </c>
-      <c r="E57" s="4" t="s">
+      <c r="D58" s="3">
+        <v>2</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B59" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C59" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D59" s="7">
         <v>4</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E59" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B60" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C60" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="3">
-        <v>2</v>
-      </c>
-      <c r="E59" s="4" t="s">
+      <c r="D60" s="3">
+        <v>2</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="21" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B61" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="5">
-        <v>1</v>
-      </c>
-      <c r="E60" s="6" t="s">
+      <c r="D61" s="5">
+        <v>1</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B62" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C62" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="5">
-        <v>1</v>
-      </c>
-      <c r="E61" s="6" t="s">
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B63" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C63" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D62" s="7">
-        <v>4</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>61</v>
       </c>
       <c r="D63" s="7">
         <v>4</v>
       </c>
       <c r="E63" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="7">
+        <v>4</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B65" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C65" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="3">
-        <v>2</v>
-      </c>
-      <c r="E64" s="4" t="s">
+      <c r="D65" s="3">
+        <v>2</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B66" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C66" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="25">
-        <v>1</v>
-      </c>
-      <c r="E65" s="26" t="s">
+      <c r="D66" s="20">
+        <v>1</v>
+      </c>
+      <c r="E66" s="21" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2339,1137 +2312,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E65"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="2"/>
-    <col min="5" max="5" width="11.42578125" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="15">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="15">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="15">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="15">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="15">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
-      <c r="E29" s="15">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="15">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1</v>
-      </c>
-      <c r="E31" s="15">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="5">
-        <v>1</v>
-      </c>
-      <c r="E32" s="15">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="5">
-        <v>1</v>
-      </c>
-      <c r="E33" s="15">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="3">
-        <v>2</v>
-      </c>
-      <c r="E34" s="16">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="3">
-        <v>2</v>
-      </c>
-      <c r="E35" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="3">
-        <v>2</v>
-      </c>
-      <c r="E36" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="3">
-        <v>2</v>
-      </c>
-      <c r="E37" s="16">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="3">
-        <v>2</v>
-      </c>
-      <c r="E38" s="16">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="3">
-        <v>2</v>
-      </c>
-      <c r="E39" s="16">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="3">
-        <v>2</v>
-      </c>
-      <c r="E40" s="16">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="3">
-        <v>2</v>
-      </c>
-      <c r="E41" s="16">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>126</v>
-      </c>
-      <c r="B42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="3">
-        <v>2</v>
-      </c>
-      <c r="E42" s="16">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>128</v>
-      </c>
-      <c r="B43" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="3">
-        <v>2</v>
-      </c>
-      <c r="E43" s="16">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="3">
-        <v>2</v>
-      </c>
-      <c r="E44" s="16">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="3">
-        <v>2</v>
-      </c>
-      <c r="E45" s="16">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="3">
-        <v>2</v>
-      </c>
-      <c r="E46" s="16">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="3">
-        <v>2</v>
-      </c>
-      <c r="E47" s="16">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="3">
-        <v>2</v>
-      </c>
-      <c r="E48" s="16">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="3">
-        <v>2</v>
-      </c>
-      <c r="E49" s="16">
-        <v>3.31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2</v>
-      </c>
-      <c r="E50" s="16">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="3">
-        <v>2</v>
-      </c>
-      <c r="E51" s="16">
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="3">
-        <v>2</v>
-      </c>
-      <c r="E52" s="16">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>130</v>
-      </c>
-      <c r="B53" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" s="3">
-        <v>2</v>
-      </c>
-      <c r="E53" s="16">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>130</v>
-      </c>
-      <c r="B54" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="3">
-        <v>2</v>
-      </c>
-      <c r="E54" s="16">
-        <v>4.45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="3">
-        <v>2</v>
-      </c>
-      <c r="E55" s="16">
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>126</v>
-      </c>
-      <c r="B56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="11">
-        <v>3</v>
-      </c>
-      <c r="E56" s="17">
-        <v>18.350000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>130</v>
-      </c>
-      <c r="B57" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="7">
-        <v>4</v>
-      </c>
-      <c r="E57" s="18">
-        <v>29.83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>126</v>
-      </c>
-      <c r="B58" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="7">
-        <v>4</v>
-      </c>
-      <c r="E58" s="18">
-        <v>38.409999999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="7">
-        <v>4</v>
-      </c>
-      <c r="E59" s="18">
-        <v>39.08</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="7">
-        <v>4</v>
-      </c>
-      <c r="E60" s="18">
-        <v>39.880000000000003</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>126</v>
-      </c>
-      <c r="B61" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="7">
-        <v>4</v>
-      </c>
-      <c r="E61" s="18">
-        <v>45.9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>126</v>
-      </c>
-      <c r="B62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="7">
-        <v>4</v>
-      </c>
-      <c r="E62" s="18">
-        <v>46.31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="7">
-        <v>4</v>
-      </c>
-      <c r="E63" s="18">
-        <v>47.18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>130</v>
-      </c>
-      <c r="B64" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" t="s">
-        <v>56</v>
-      </c>
-      <c r="D64" s="7">
-        <v>4</v>
-      </c>
-      <c r="E64" s="18">
-        <v>48.43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>126</v>
-      </c>
-      <c r="B65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="9">
-        <v>5</v>
-      </c>
-      <c r="E65" s="19">
-        <v>168.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:E65">
-    <sortCondition ref="E2:E65"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -3480,7 +2323,7 @@
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3504,7 +2347,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -3519,12 +2362,12 @@
       <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="25" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -3539,12 +2382,12 @@
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="25" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -3559,12 +2402,12 @@
       <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="25" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="24">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -3579,12 +2422,12 @@
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="25" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -3599,12 +2442,12 @@
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="25" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -3619,12 +2462,12 @@
       <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="25" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+      <c r="A8" s="24">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -3639,12 +2482,12 @@
       <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="25" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+      <c r="A9" s="24">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -3659,12 +2502,12 @@
       <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="25" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+      <c r="A10" s="24">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -3679,12 +2522,12 @@
       <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="25" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="24">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -3699,12 +2542,12 @@
       <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="25" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+      <c r="A12" s="24">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -3719,12 +2562,12 @@
       <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="25" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+      <c r="A13" s="24">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -3739,12 +2582,12 @@
       <c r="E13" s="5">
         <v>1</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="25" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
+      <c r="A14" s="24">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -3759,12 +2602,12 @@
       <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
+      <c r="A15" s="24">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -3779,12 +2622,12 @@
       <c r="E15" s="5">
         <v>1</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="25" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
+      <c r="A16" s="24">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -3799,12 +2642,12 @@
       <c r="E16" s="5">
         <v>1</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
+      <c r="A17" s="24">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -3819,12 +2662,12 @@
       <c r="E17" s="5">
         <v>1</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
+      <c r="A18" s="24">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -3839,12 +2682,12 @@
       <c r="E18" s="5">
         <v>1</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="25" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+      <c r="A19" s="24">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -3859,12 +2702,12 @@
       <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="25" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
+      <c r="A20" s="24">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -3879,12 +2722,12 @@
       <c r="E20" s="5">
         <v>1</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="25" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
+      <c r="A21" s="24">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -3899,12 +2742,12 @@
       <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="25" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
+      <c r="A22" s="24">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -3919,12 +2762,12 @@
       <c r="E22" s="5">
         <v>1</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="25" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
+      <c r="A23" s="24">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -3939,12 +2782,12 @@
       <c r="E23" s="5">
         <v>1</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="25" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
+      <c r="A24" s="24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -3959,12 +2802,12 @@
       <c r="E24" s="5">
         <v>1</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="25" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
+      <c r="A25" s="24">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -3979,12 +2822,12 @@
       <c r="E25" s="5">
         <v>1</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+      <c r="A26" s="24">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -3999,12 +2842,12 @@
       <c r="E26" s="5">
         <v>1</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="25" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
+      <c r="A27" s="24">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -4019,12 +2862,12 @@
       <c r="E27" s="5">
         <v>1</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="25" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
+      <c r="A28" s="24">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -4039,12 +2882,12 @@
       <c r="E28" s="5">
         <v>1</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="25" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
+      <c r="A29" s="24">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -4059,12 +2902,12 @@
       <c r="E29" s="5">
         <v>1</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="25" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
+      <c r="A30" s="24">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -4079,12 +2922,12 @@
       <c r="E30" s="5">
         <v>1</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="25" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
+      <c r="A31" s="24">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -4099,12 +2942,12 @@
       <c r="E31" s="5">
         <v>1</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29">
+      <c r="A32" s="24">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -4119,12 +2962,12 @@
       <c r="E32" s="5">
         <v>1</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="25" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
+      <c r="A33" s="24">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -4139,12 +2982,12 @@
       <c r="E33" s="5">
         <v>1</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="25" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="29">
+      <c r="A34" s="24">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -4159,12 +3002,12 @@
       <c r="E34" s="3">
         <v>2</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F34" s="26" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29">
+      <c r="A35" s="24">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -4179,12 +3022,12 @@
       <c r="E35" s="3">
         <v>2</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="26" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="29">
+      <c r="A36" s="24">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -4199,12 +3042,12 @@
       <c r="E36" s="3">
         <v>2</v>
       </c>
-      <c r="F36" s="31" t="s">
+      <c r="F36" s="26" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="29">
+      <c r="A37" s="24">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -4219,12 +3062,12 @@
       <c r="E37" s="3">
         <v>2</v>
       </c>
-      <c r="F37" s="31" t="s">
+      <c r="F37" s="26" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="29">
+      <c r="A38" s="24">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -4239,12 +3082,12 @@
       <c r="E38" s="3">
         <v>2</v>
       </c>
-      <c r="F38" s="31" t="s">
+      <c r="F38" s="26" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="29">
+      <c r="A39" s="24">
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -4259,12 +3102,12 @@
       <c r="E39" s="3">
         <v>2</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="F39" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="29">
+      <c r="A40" s="24">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -4279,12 +3122,12 @@
       <c r="E40" s="3">
         <v>2</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="F40" s="26" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="29">
+      <c r="A41" s="24">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -4299,12 +3142,12 @@
       <c r="E41" s="3">
         <v>2</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="26" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="29">
+      <c r="A42" s="24">
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -4319,12 +3162,12 @@
       <c r="E42" s="3">
         <v>2</v>
       </c>
-      <c r="F42" s="31" t="s">
+      <c r="F42" s="26" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="29">
+      <c r="A43" s="24">
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -4339,12 +3182,12 @@
       <c r="E43" s="3">
         <v>2</v>
       </c>
-      <c r="F43" s="31" t="s">
+      <c r="F43" s="26" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="29">
+      <c r="A44" s="24">
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -4359,12 +3202,12 @@
       <c r="E44" s="3">
         <v>2</v>
       </c>
-      <c r="F44" s="31" t="s">
+      <c r="F44" s="26" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="29">
+      <c r="A45" s="24">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -4379,12 +3222,12 @@
       <c r="E45" s="3">
         <v>2</v>
       </c>
-      <c r="F45" s="31" t="s">
+      <c r="F45" s="26" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="29">
+      <c r="A46" s="24">
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -4399,12 +3242,12 @@
       <c r="E46" s="3">
         <v>2</v>
       </c>
-      <c r="F46" s="31" t="s">
+      <c r="F46" s="26" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="29">
+      <c r="A47" s="24">
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -4419,12 +3262,12 @@
       <c r="E47" s="3">
         <v>2</v>
       </c>
-      <c r="F47" s="31" t="s">
+      <c r="F47" s="26" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="29">
+      <c r="A48" s="24">
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -4439,12 +3282,12 @@
       <c r="E48" s="3">
         <v>2</v>
       </c>
-      <c r="F48" s="31" t="s">
+      <c r="F48" s="26" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="29">
+      <c r="A49" s="24">
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -4459,12 +3302,12 @@
       <c r="E49" s="3">
         <v>2</v>
       </c>
-      <c r="F49" s="31" t="s">
+      <c r="F49" s="26" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="29">
+      <c r="A50" s="24">
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -4479,12 +3322,12 @@
       <c r="E50" s="3">
         <v>2</v>
       </c>
-      <c r="F50" s="31" t="s">
+      <c r="F50" s="26" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="29">
+      <c r="A51" s="24">
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -4499,12 +3342,12 @@
       <c r="E51" s="3">
         <v>2</v>
       </c>
-      <c r="F51" s="31" t="s">
+      <c r="F51" s="26" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="29">
+      <c r="A52" s="24">
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -4519,12 +3362,12 @@
       <c r="E52" s="3">
         <v>2</v>
       </c>
-      <c r="F52" s="31" t="s">
+      <c r="F52" s="26" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="29">
+      <c r="A53" s="24">
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -4539,12 +3382,12 @@
       <c r="E53" s="3">
         <v>2</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F53" s="26" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="29">
+      <c r="A54" s="24">
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -4559,12 +3402,12 @@
       <c r="E54" s="3">
         <v>2</v>
       </c>
-      <c r="F54" s="31" t="s">
+      <c r="F54" s="26" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="29">
+      <c r="A55" s="24">
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -4579,207 +3422,227 @@
       <c r="E55" s="3">
         <v>2</v>
       </c>
-      <c r="F55" s="31" t="s">
+      <c r="F55" s="26" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="29">
+      <c r="A56" s="24">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" t="s">
-        <v>7</v>
+      <c r="B56" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="E56" s="11">
         <v>3</v>
       </c>
-      <c r="F56" s="32" t="s">
+      <c r="F56" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="24">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="11">
+        <v>3</v>
+      </c>
+      <c r="F57" s="27" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="29">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="24">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
         <v>130</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>122</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>60</v>
-      </c>
-      <c r="E57" s="7">
-        <v>4</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="29">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" t="s">
-        <v>73</v>
-      </c>
-      <c r="D58" t="s">
-        <v>14</v>
       </c>
       <c r="E58" s="7">
         <v>4</v>
       </c>
-      <c r="F58" s="33" t="s">
-        <v>146</v>
+      <c r="F58" s="28" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="29">
+      <c r="A59" s="24">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="D59" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E59" s="7">
         <v>4</v>
       </c>
-      <c r="F59" s="33" t="s">
-        <v>189</v>
+      <c r="F59" s="28" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="29">
+      <c r="A60" s="24">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E60" s="7">
         <v>4</v>
       </c>
-      <c r="F60" s="33" t="s">
-        <v>156</v>
+      <c r="F60" s="28" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="29">
+      <c r="A61" s="24">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E61" s="7">
         <v>4</v>
       </c>
-      <c r="F61" s="33" t="s">
-        <v>152</v>
+      <c r="F61" s="28" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="29">
+      <c r="A62" s="24">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E62" s="7">
         <v>4</v>
       </c>
-      <c r="F62" s="33" t="s">
-        <v>153</v>
+      <c r="F62" s="28" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="29">
+      <c r="A63" s="24">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>126</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D63" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E63" s="7">
         <v>4</v>
       </c>
-      <c r="F63" s="33" t="s">
-        <v>157</v>
+      <c r="F63" s="28" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="29">
+      <c r="A64" s="24">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C64" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E64" s="7">
         <v>4</v>
       </c>
-      <c r="F64" s="33" t="s">
+      <c r="F64" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="24">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="7">
+        <v>4</v>
+      </c>
+      <c r="F65" s="28" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="29">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="24">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" t="s">
         <v>74</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E66" s="9">
         <v>5</v>
       </c>
-      <c r="F65" s="34" t="s">
+      <c r="F66" s="29" t="s">
         <v>147</v>
       </c>
     </row>

--- a/algorithms.xlsx
+++ b/algorithms.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\lrslibrary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alrslibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="210">
   <si>
     <t>Method</t>
   </si>
@@ -695,13 +695,40 @@
     <t>Semi Non-negative Matrix Factorization</t>
   </si>
   <si>
-    <t>SPGL1</t>
-  </si>
-  <si>
-    <t>A variational approach to SPCP (Aravkin et al. 2014)</t>
-  </si>
-  <si>
-    <t>16.60</t>
+    <t>flip-SPCP-sum-SPG</t>
+  </si>
+  <si>
+    <t>flip-SPCP-max-QN</t>
+  </si>
+  <si>
+    <t>Lag-SPCP-SPG</t>
+  </si>
+  <si>
+    <t>Lag-SPCP-QN</t>
+  </si>
+  <si>
+    <t>Flip-Flop version of Stable PCP-sum solved by Spectral Projected Gradient (Aravkin et al. 2014)</t>
+  </si>
+  <si>
+    <t>Flip-Flop version of Stable PCP-max solved by Quasi-Newton (Aravkin et al. 2014)</t>
+  </si>
+  <si>
+    <t>Lagrangian SPCP solved by Quasi-Newton (Aravkin et al. 2014)</t>
+  </si>
+  <si>
+    <t>Lagrangian SPCP solved by Spectral Projected Gradient (Aravkin et al. 2014)</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>57.67</t>
+  </si>
+  <si>
+    <t>27.71</t>
   </si>
 </sst>
 </file>
@@ -812,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -873,7 +900,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -887,6 +913,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1169,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1542,68 +1572,68 @@
       <c r="A22" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" s="11">
-        <v>3</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>200</v>
+      <c r="C22" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>23</v>
+      <c r="B23" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>203</v>
       </c>
       <c r="D23" s="7">
         <v>4</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="7">
-        <v>4</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>153</v>
+      <c r="B24" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>155</v>
+      <c r="B25" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1611,16 +1641,16 @@
         <v>126</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>143</v>
+        <v>23</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1628,16 +1658,16 @@
         <v>126</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D27" s="7">
         <v>4</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1645,16 +1675,16 @@
         <v>126</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="7">
-        <v>4</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>157</v>
+        <v>25</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1662,16 +1692,16 @@
         <v>126</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D29" s="3">
         <v>2</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1679,16 +1709,16 @@
         <v>126</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="3">
-        <v>2</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>159</v>
+        <v>27</v>
+      </c>
+      <c r="D30" s="7">
+        <v>4</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1696,186 +1726,186 @@
         <v>126</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>161</v>
+        <v>28</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="20">
-        <v>1</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>160</v>
+      <c r="A32" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>8</v>
+      <c r="A33" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="D33" s="3">
         <v>2</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="20">
+        <v>1</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B36" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C37" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="5">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B38" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C38" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="5">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="5">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="20">
-        <v>1</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="5">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="20">
+        <v>1</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="5">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="5">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>39</v>
+      <c r="B41" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="D41" s="5">
         <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1883,16 +1913,16 @@
         <v>128</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="3">
-        <v>2</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>132</v>
+        <v>37</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1900,16 +1930,16 @@
         <v>128</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1917,16 +1947,16 @@
         <v>128</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1934,16 +1964,16 @@
         <v>128</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="5">
-        <v>1</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>172</v>
+        <v>40</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1951,16 +1981,16 @@
         <v>128</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="3">
-        <v>2</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>173</v>
+        <v>41</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1968,16 +1998,16 @@
         <v>128</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="3">
-        <v>2</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>131</v>
+        <v>42</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1985,101 +2015,101 @@
         <v>128</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="20">
-        <v>1</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>135</v>
+      <c r="B49" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>47</v>
+      <c r="A50" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="D50" s="3">
         <v>2</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="20">
+        <v>1</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="3">
-        <v>2</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="5">
-        <v>1</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>50</v>
+      <c r="B53" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="D53" s="3">
         <v>2</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2087,101 +2117,101 @@
         <v>129</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D54" s="3">
         <v>2</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="22">
-        <v>2</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>180</v>
+      <c r="B55" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="5">
-        <v>1</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>181</v>
+      <c r="A56" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="22">
+        <v>2</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="3">
-        <v>2</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="3">
-        <v>2</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" s="7">
-        <v>4</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>184</v>
+      <c r="B59" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2189,16 +2219,16 @@
         <v>130</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D60" s="3">
         <v>2</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2206,16 +2236,16 @@
         <v>130</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" s="5">
-        <v>1</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>186</v>
+        <v>55</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2223,16 +2253,16 @@
         <v>130</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D62" s="5">
-        <v>1</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>187</v>
+        <v>56</v>
+      </c>
+      <c r="D62" s="7">
+        <v>4</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2240,16 +2270,16 @@
         <v>130</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D63" s="7">
-        <v>4</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>188</v>
+        <v>57</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2257,16 +2287,16 @@
         <v>130</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" s="7">
-        <v>4</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>189</v>
+        <v>58</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2274,32 +2304,83 @@
         <v>130</v>
       </c>
       <c r="B65" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="7">
+        <v>4</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="7">
+        <v>4</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D65" s="3">
-        <v>2</v>
-      </c>
-      <c r="E65" s="4" t="s">
+      <c r="D68" s="3">
+        <v>2</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B69" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C69" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D66" s="20">
-        <v>1</v>
-      </c>
-      <c r="E66" s="21" t="s">
+      <c r="D69" s="20">
+        <v>1</v>
+      </c>
+      <c r="E69" s="21" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2312,7 +2393,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -2347,7 +2428,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2362,12 +2443,12 @@
       <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2382,12 +2463,12 @@
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="30">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2402,12 +2483,12 @@
       <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="30">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2422,12 +2503,12 @@
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="30">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2442,1207 +2523,1267 @@
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="30">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
+      <c r="B7" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>204</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>186</v>
+      <c r="F7" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="30">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>191</v>
+      <c r="F8" s="24" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="30">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>130</v>
       </c>
       <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
         <v>121</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="25" t="s">
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>128</v>
       </c>
-      <c r="C11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>107</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>197</v>
       </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="25" t="s">
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>127</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>96</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="25" t="s">
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
         <v>66</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="25" t="s">
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="30">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>128</v>
       </c>
       <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
         <v>98</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="25" t="s">
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="25" t="s">
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s">
         <v>81</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="25" t="s">
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>129</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>111</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="25" t="s">
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="24" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>128</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>99</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="25" t="s">
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="24" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s">
         <v>192</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="F22" s="25" t="s">
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>163</v>
-      </c>
-    </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+      <c r="A24" s="30">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>127</v>
       </c>
       <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
         <v>95</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-      <c r="F24" s="25" t="s">
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="24" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>128</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>100</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="25" t="s">
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="24" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="30">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="30">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="30">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="30">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="30">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="5">
-        <v>1</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="5">
-        <v>1</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2</v>
-      </c>
-      <c r="F35" s="26" t="s">
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="25" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="3">
-        <v>2</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="30">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" t="s">
         <v>72</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="3">
-        <v>2</v>
-      </c>
-      <c r="F37" s="26" t="s">
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="F38" s="25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="24">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="1" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="3">
-        <v>2</v>
-      </c>
-      <c r="F38" s="26" t="s">
+      <c r="E39" s="3">
+        <v>2</v>
+      </c>
+      <c r="F39" s="25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="3">
-        <v>2</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>131</v>
-      </c>
-    </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="24">
+      <c r="A40" s="30">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>128</v>
       </c>
       <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="30">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" t="s">
         <v>101</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="3">
-        <v>2</v>
-      </c>
-      <c r="F40" s="26" t="s">
+      <c r="E41" s="3">
+        <v>2</v>
+      </c>
+      <c r="F41" s="25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="30">
+        <v>41</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="30">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
         <v>89</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D43" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="3">
-        <v>2</v>
-      </c>
-      <c r="F41" s="26" t="s">
+      <c r="E43" s="3">
+        <v>2</v>
+      </c>
+      <c r="F43" s="25" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="30">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" t="s">
         <v>88</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="3">
-        <v>2</v>
-      </c>
-      <c r="F42" s="26" t="s">
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+      <c r="F44" s="25" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="30">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>128</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>105</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D45" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="3">
-        <v>2</v>
-      </c>
-      <c r="F43" s="26" t="s">
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
+      <c r="F45" s="25" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="30">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>129</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>109</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D46" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="3">
-        <v>2</v>
-      </c>
-      <c r="F44" s="26" t="s">
+      <c r="E46" s="3">
+        <v>2</v>
+      </c>
+      <c r="F46" s="25" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="24">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="30">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
         <v>130</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>116</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="3">
-        <v>2</v>
-      </c>
-      <c r="F45" s="26" t="s">
+      <c r="E47" s="3">
+        <v>2</v>
+      </c>
+      <c r="F47" s="25" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="30">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>127</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C48" t="s">
         <v>92</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D48" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="3">
-        <v>2</v>
-      </c>
-      <c r="F46" s="26" t="s">
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48" s="25" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="30">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" t="s">
         <v>68</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D49" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
-        <v>2</v>
-      </c>
-      <c r="F47" s="26" t="s">
+      <c r="E49" s="3">
+        <v>2</v>
+      </c>
+      <c r="F49" s="25" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="24">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="30">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>130</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" t="s">
         <v>117</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D50" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="3">
-        <v>2</v>
-      </c>
-      <c r="F48" s="26" t="s">
+      <c r="E50" s="3">
+        <v>2</v>
+      </c>
+      <c r="F50" s="25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="24">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="30">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>129</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
         <v>113</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D51" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="3">
-        <v>2</v>
-      </c>
-      <c r="F49" s="26" t="s">
+      <c r="E51" s="3">
+        <v>2</v>
+      </c>
+      <c r="F51" s="25" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="24">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E50" s="3">
-        <v>2</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="24">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="3">
-        <v>2</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>148</v>
-      </c>
-    </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="24">
+      <c r="A52" s="30">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>129</v>
       </c>
       <c r="C52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="30">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="30">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" t="s">
         <v>110</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D54" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="3">
-        <v>2</v>
-      </c>
-      <c r="F52" s="26" t="s">
+      <c r="E54" s="3">
+        <v>2</v>
+      </c>
+      <c r="F54" s="25" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="24">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="30">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="30">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="3">
+        <v>2</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="30">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" t="s">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" t="s">
-        <v>62</v>
-      </c>
-      <c r="E53" s="3">
-        <v>2</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="24">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" t="s">
-        <v>119</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E57" s="3">
+        <v>2</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="30">
         <v>57</v>
       </c>
-      <c r="E54" s="3">
-        <v>2</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="24">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="3">
-        <v>2</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="24">
-        <v>55</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D56" s="16" t="s">
+      <c r="B58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="11">
+        <v>3</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="30">
+        <v>58</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="E56" s="11">
-        <v>3</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="24">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="11">
-        <v>3</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="24">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" t="s">
-        <v>122</v>
-      </c>
-      <c r="D58" t="s">
-        <v>60</v>
-      </c>
-      <c r="E58" s="7">
-        <v>4</v>
-      </c>
-      <c r="F58" s="28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="24">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" t="s">
-        <v>14</v>
+      <c r="D59" s="29" t="s">
+        <v>203</v>
       </c>
       <c r="E59" s="7">
         <v>4</v>
       </c>
-      <c r="F59" s="28" t="s">
-        <v>146</v>
+      <c r="F59" s="7" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="24">
+      <c r="A60" s="30">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>130</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E60" s="7">
         <v>4</v>
       </c>
-      <c r="F60" s="28" t="s">
-        <v>189</v>
+      <c r="F60" s="27" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="24">
+      <c r="A61" s="30">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E61" s="7">
         <v>4</v>
       </c>
-      <c r="F61" s="28" t="s">
-        <v>156</v>
+      <c r="F61" s="27" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="24">
+      <c r="A62" s="30">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E62" s="7">
         <v>4</v>
       </c>
-      <c r="F62" s="28" t="s">
-        <v>152</v>
+      <c r="F62" s="27" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="24">
+      <c r="A63" s="30">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>126</v>
       </c>
       <c r="C63" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E63" s="7">
         <v>4</v>
       </c>
-      <c r="F63" s="28" t="s">
-        <v>153</v>
+      <c r="F63" s="27" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="24">
+      <c r="A64" s="30">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>126</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E64" s="7">
         <v>4</v>
       </c>
-      <c r="F64" s="28" t="s">
-        <v>157</v>
+      <c r="F64" s="27" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="24">
+      <c r="A65" s="30">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C65" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="D65" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E65" s="7">
         <v>4</v>
       </c>
-      <c r="F65" s="28" t="s">
+      <c r="F65" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="30">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="7">
+        <v>4</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="30">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" s="7">
+        <v>4</v>
+      </c>
+      <c r="F67" s="27" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="24">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="30">
+        <v>67</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E68" s="7">
+        <v>4</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="30">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" t="s">
         <v>74</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D69" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E69" s="9">
         <v>5</v>
       </c>
-      <c r="F66" s="29" t="s">
+      <c r="F69" s="28" t="s">
         <v>147</v>
       </c>
     </row>

--- a/algorithms.xlsx
+++ b/algorithms.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alrslibrary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\lrslibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10320" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="Algs" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="222">
   <si>
     <t>Method</t>
   </si>
@@ -729,6 +729,42 @@
   </si>
   <si>
     <t>27.71</t>
+  </si>
+  <si>
+    <t>ROSL</t>
+  </si>
+  <si>
+    <t>Robust Orthonormal Subspace Learning (Shu et al. 2014)</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>GOSUS</t>
+  </si>
+  <si>
+    <t>pROST</t>
+  </si>
+  <si>
+    <t>Grassmannian Online Subspace Updates with Structured-sparsity (Xu et al. 2013)</t>
+  </si>
+  <si>
+    <t>Robust PCA and subspace tracking from incomplete observations using L0-surrogates (Hage and Kleinsteuber, 2013)</t>
+  </si>
+  <si>
+    <t>8.94</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>RegL1-ALM</t>
+  </si>
+  <si>
+    <t>Low-Rank Matrix Approximation under Robust L1-Norm (Zheng et al. 2012)</t>
+  </si>
+  <si>
+    <t>0.58</t>
   </si>
 </sst>
 </file>
@@ -1199,15 +1235,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
@@ -1522,16 +1558,16 @@
         <v>126</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>137</v>
+        <v>215</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1539,16 +1575,16 @@
         <v>126</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>151</v>
+        <v>216</v>
+      </c>
+      <c r="D20" s="11">
+        <v>3</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1556,67 +1592,67 @@
         <v>126</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="7">
-        <v>4</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>208</v>
+      <c r="B22" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="D23" s="7">
-        <v>4</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>209</v>
+      <c r="B23" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>207</v>
+      <c r="B24" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1624,67 +1660,67 @@
         <v>126</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>23</v>
+      <c r="B26" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>203</v>
       </c>
       <c r="D26" s="7">
         <v>4</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="7">
-        <v>4</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>153</v>
+      <c r="B27" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>155</v>
+      <c r="B28" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1692,16 +1728,16 @@
         <v>126</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="3">
-        <v>2</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>143</v>
+        <v>23</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1709,16 +1745,16 @@
         <v>126</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D30" s="7">
         <v>4</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1726,16 +1762,16 @@
         <v>126</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="7">
-        <v>4</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>157</v>
+        <v>25</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1743,16 +1779,16 @@
         <v>126</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D32" s="3">
         <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1760,16 +1796,16 @@
         <v>126</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="3">
-        <v>2</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>159</v>
+        <v>27</v>
+      </c>
+      <c r="D33" s="7">
+        <v>4</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1777,203 +1813,203 @@
         <v>126</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="5">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>161</v>
+        <v>28</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="20">
-        <v>1</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>160</v>
+      <c r="A35" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>8</v>
+      <c r="A36" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="D36" s="3">
         <v>2</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B39" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C41" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="5">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6" t="s">
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="5">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="20">
-        <v>1</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" s="20">
+        <v>1</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="5">
-        <v>1</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="5">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="3">
-        <v>2</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>132</v>
+      <c r="B45" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1981,16 +2017,16 @@
         <v>128</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1998,16 +2034,16 @@
         <v>128</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D47" s="5">
         <v>1</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2015,16 +2051,16 @@
         <v>128</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2032,16 +2068,16 @@
         <v>128</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D49" s="3">
         <v>2</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2049,16 +2085,16 @@
         <v>128</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>131</v>
+        <v>41</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2066,220 +2102,220 @@
         <v>128</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="D51" s="5">
         <v>1</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="20">
-        <v>1</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>135</v>
+      <c r="B52" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>47</v>
+      <c r="A53" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="D53" s="3">
         <v>2</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D54" s="3">
         <v>2</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="20">
+        <v>1</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B57" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C59" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="5">
-        <v>1</v>
-      </c>
-      <c r="E55" s="6" t="s">
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="3">
-        <v>2</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="3">
-        <v>2</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="22">
-        <v>2</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D59" s="5">
-        <v>1</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D60" s="3">
         <v>2</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="22">
+        <v>2</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D61" s="3">
-        <v>2</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" s="7">
-        <v>4</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D63" s="3">
-        <v>2</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>185</v>
+      <c r="B63" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2287,16 +2323,16 @@
         <v>130</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D64" s="5">
-        <v>1</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>186</v>
+        <v>54</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2304,16 +2340,16 @@
         <v>130</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D65" s="5">
-        <v>1</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>187</v>
+        <v>55</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2321,16 +2357,16 @@
         <v>130</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D66" s="7">
         <v>4</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2338,16 +2374,16 @@
         <v>130</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" s="7">
-        <v>4</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>189</v>
+        <v>57</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2355,32 +2391,100 @@
         <v>130</v>
       </c>
       <c r="B68" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="7">
+        <v>4</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="7">
+        <v>4</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D68" s="3">
-        <v>2</v>
-      </c>
-      <c r="E68" s="4" t="s">
+      <c r="D72" s="3">
+        <v>2</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B73" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C73" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D69" s="20">
-        <v>1</v>
-      </c>
-      <c r="E69" s="21" t="s">
+      <c r="D73" s="20">
+        <v>1</v>
+      </c>
+      <c r="E73" s="21" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2393,16 +2497,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="88.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="109.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" style="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -2551,20 +2655,20 @@
       <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
+      <c r="B8" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>211</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>186</v>
+      <c r="F8" s="5" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2575,16 +2679,16 @@
         <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2595,16 +2699,16 @@
         <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2612,19 +2716,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2632,19 +2736,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2652,19 +2756,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2672,19 +2776,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>9</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2692,19 +2796,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2712,19 +2816,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2732,19 +2836,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2755,16 +2859,16 @@
         <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2772,19 +2876,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2795,10 +2899,10 @@
         <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -2812,19 +2916,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2832,19 +2936,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2852,19 +2956,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2872,13 +2976,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -2895,16 +2999,16 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2912,19 +3016,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2932,19 +3036,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2955,16 +3059,16 @@
         <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2975,16 +3079,16 @@
         <v>126</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2995,16 +3099,16 @@
         <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3012,19 +3116,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" t="s">
-        <v>33</v>
+        <v>126</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
       </c>
-      <c r="F31" s="24" t="s">
-        <v>164</v>
+      <c r="F31" s="5" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3032,19 +3136,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3052,19 +3156,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3072,19 +3176,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3095,16 +3199,16 @@
         <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>155</v>
+        <v>19</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3115,16 +3219,16 @@
         <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="3">
-        <v>2</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>143</v>
+        <v>12</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3135,16 +3239,16 @@
         <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E37" s="3">
         <v>2</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3155,16 +3259,16 @@
         <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3174,17 +3278,17 @@
       <c r="B39" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>64</v>
+      <c r="C39" t="s">
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E39" s="3">
         <v>2</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3192,19 +3296,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3212,39 +3316,39 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" t="s">
-        <v>101</v>
+        <v>126</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E41" s="3">
         <v>2</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>41</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>205</v>
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
       </c>
       <c r="E42" s="3">
         <v>2</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>207</v>
+      <c r="F42" s="25" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3252,39 +3356,39 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" t="s">
-        <v>29</v>
+      <c r="B44" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>205</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
-      <c r="F44" s="25" t="s">
-        <v>158</v>
+      <c r="F44" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3292,19 +3396,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3312,19 +3416,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E46" s="3">
         <v>2</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3332,19 +3436,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3352,19 +3456,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E48" s="3">
         <v>2</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3372,39 +3476,39 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E49" s="3">
         <v>2</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" t="s">
-        <v>55</v>
+      <c r="B50" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="E50" s="3">
         <v>2</v>
       </c>
-      <c r="F50" s="25" t="s">
-        <v>183</v>
+      <c r="F50" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3412,19 +3516,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E51" s="3">
         <v>2</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3432,19 +3536,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E52" s="3">
         <v>2</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3452,19 +3556,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="E53" s="3">
         <v>2</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3475,16 +3579,16 @@
         <v>129</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E54" s="3">
         <v>2</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3492,19 +3596,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -3512,19 +3616,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E56" s="3">
         <v>2</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3535,16 +3639,16 @@
         <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E57" s="3">
         <v>2</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3552,39 +3656,39 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="11">
-        <v>3</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>139</v>
+        <v>62</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>58</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="E59" s="7">
-        <v>4</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>209</v>
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3592,39 +3696,39 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D60" t="s">
-        <v>60</v>
-      </c>
-      <c r="E60" s="7">
-        <v>4</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>188</v>
+        <v>52</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="30">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="7">
-        <v>4</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>146</v>
+      <c r="B61" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E61" s="11">
+        <v>3</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3632,39 +3736,39 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62" s="7">
-        <v>4</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>189</v>
+        <v>7</v>
+      </c>
+      <c r="E62" s="11">
+        <v>3</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" t="s">
-        <v>27</v>
+      <c r="B63" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>203</v>
       </c>
       <c r="E63" s="7">
         <v>4</v>
       </c>
-      <c r="F63" s="27" t="s">
-        <v>156</v>
+      <c r="F63" s="7" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3672,19 +3776,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E64" s="7">
         <v>4</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -3695,16 +3799,16 @@
         <v>126</v>
       </c>
       <c r="C65" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E65" s="7">
         <v>4</v>
       </c>
       <c r="F65" s="27" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -3712,19 +3816,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="D66" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E66" s="7">
         <v>4</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3732,39 +3836,39 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D67" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E67" s="7">
         <v>4</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="30">
         <v>67</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>202</v>
+      <c r="B68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" t="s">
+        <v>23</v>
       </c>
       <c r="E68" s="7">
         <v>4</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>208</v>
+      <c r="F68" s="27" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3775,15 +3879,95 @@
         <v>126</v>
       </c>
       <c r="C69" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="7">
+        <v>4</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="30">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="7">
+        <v>4</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="30">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" t="s">
+        <v>118</v>
+      </c>
+      <c r="D71" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71" s="7">
+        <v>4</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="30">
+        <v>71</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E72" s="7">
+        <v>4</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="30">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" t="s">
         <v>74</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D73" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E73" s="9">
         <v>5</v>
       </c>
-      <c r="F69" s="28" t="s">
+      <c r="F73" s="28" t="s">
         <v>147</v>
       </c>
     </row>

--- a/algorithms.xlsx
+++ b/algorithms.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Algs" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="229">
   <si>
     <t>Method</t>
   </si>
@@ -765,6 +765,27 @@
   </si>
   <si>
     <t>0.58</t>
+  </si>
+  <si>
+    <t>iNMF</t>
+  </si>
+  <si>
+    <t>Incremental Subspace Learning via NMF (Bucak and Gunsel, 2009)</t>
+  </si>
+  <si>
+    <t>DRMF</t>
+  </si>
+  <si>
+    <t>Direct Robust Matrix Factorization (Xiong et al. 2011)</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>FW-T</t>
+  </si>
+  <si>
+    <t>SPCP solved by Frank-Wolfe method (Mu et al. 2014)</t>
   </si>
 </sst>
 </file>
@@ -1235,9 +1256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1727,17 +1750,17 @@
       <c r="A29" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="7">
-        <v>4</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>152</v>
+      <c r="B29" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1745,16 +1768,16 @@
         <v>126</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="7">
         <v>4</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1762,16 +1785,16 @@
         <v>126</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="3">
-        <v>2</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>155</v>
+        <v>24</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1779,16 +1802,16 @@
         <v>126</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="3">
         <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1796,16 +1819,16 @@
         <v>126</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="7">
-        <v>4</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>156</v>
+        <v>26</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1813,16 +1836,16 @@
         <v>126</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="7">
         <v>4</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1830,16 +1853,16 @@
         <v>126</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="3">
-        <v>2</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>158</v>
+        <v>28</v>
+      </c>
+      <c r="D35" s="7">
+        <v>4</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1847,16 +1870,16 @@
         <v>126</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36" s="3">
         <v>2</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1864,16 +1887,16 @@
         <v>126</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="5">
-        <v>1</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>161</v>
+        <v>30</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1881,50 +1904,50 @@
         <v>126</v>
       </c>
       <c r="B38" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="5">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6" t="s">
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B40" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C40" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="3">
-        <v>2</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="D40" s="3">
+        <v>2</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="5">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1932,16 +1955,16 @@
         <v>127</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D41" s="5">
         <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1949,16 +1972,16 @@
         <v>127</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1966,67 +1989,67 @@
         <v>127</v>
       </c>
       <c r="B43" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C44" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="5">
-        <v>1</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B45" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C45" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="D44" s="20">
-        <v>1</v>
-      </c>
-      <c r="E44" s="21" t="s">
+      <c r="D45" s="20">
+        <v>1</v>
+      </c>
+      <c r="E45" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B46" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C46" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="5">
-        <v>1</v>
-      </c>
-      <c r="E45" s="6" t="s">
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="5">
-        <v>1</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2034,16 +2057,16 @@
         <v>128</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D47" s="5">
         <v>1</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2051,16 +2074,16 @@
         <v>128</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2068,16 +2091,16 @@
         <v>128</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="3">
-        <v>2</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>132</v>
+        <v>39</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2085,16 +2108,16 @@
         <v>128</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="5">
-        <v>1</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>171</v>
+        <v>40</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2102,16 +2125,16 @@
         <v>128</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D51" s="5">
         <v>1</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2119,16 +2142,16 @@
         <v>128</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2136,16 +2159,16 @@
         <v>128</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="3">
-        <v>2</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>173</v>
+        <v>43</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2153,16 +2176,16 @@
         <v>128</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D54" s="3">
         <v>2</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2170,101 +2193,101 @@
         <v>128</v>
       </c>
       <c r="B55" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C56" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="D55" s="5">
-        <v>1</v>
-      </c>
-      <c r="E55" s="6" t="s">
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C57" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="20">
-        <v>1</v>
-      </c>
-      <c r="E56" s="21" t="s">
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="3">
-        <v>2</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D59" s="20">
+        <v>1</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="3">
-        <v>2</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="5">
-        <v>1</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>50</v>
+      <c r="B60" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="D60" s="3">
         <v>2</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2272,101 +2295,101 @@
         <v>129</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D61" s="3">
         <v>2</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D62" s="22">
-        <v>2</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>180</v>
+      <c r="B62" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D63" s="5">
-        <v>1</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>181</v>
+      <c r="A63" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="22">
+        <v>2</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B64" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D64" s="3">
-        <v>2</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65" s="3">
-        <v>2</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D66" s="7">
-        <v>4</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>184</v>
+      <c r="B66" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2374,16 +2397,16 @@
         <v>130</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D67" s="3">
         <v>2</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2391,16 +2414,16 @@
         <v>130</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D68" s="5">
-        <v>1</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>186</v>
+        <v>55</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2408,16 +2431,16 @@
         <v>130</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D69" s="5">
-        <v>1</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>187</v>
+        <v>56</v>
+      </c>
+      <c r="D69" s="7">
+        <v>4</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2425,16 +2448,16 @@
         <v>130</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D70" s="7">
-        <v>4</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>188</v>
+        <v>57</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2442,16 +2465,16 @@
         <v>130</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="7">
-        <v>4</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>189</v>
+        <v>58</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2459,32 +2482,83 @@
         <v>130</v>
       </c>
       <c r="B72" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="7">
+        <v>4</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" s="7">
+        <v>4</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C75" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D72" s="3">
-        <v>2</v>
-      </c>
-      <c r="E72" s="4" t="s">
+      <c r="D75" s="3">
+        <v>2</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B76" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C76" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D73" s="20">
-        <v>1</v>
-      </c>
-      <c r="E73" s="21" t="s">
+      <c r="D76" s="20">
+        <v>1</v>
+      </c>
+      <c r="E76" s="21" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2497,9 +2571,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2618,16 +2694,16 @@
       <c r="B6" t="s">
         <v>128</v>
       </c>
-      <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
+      <c r="C6" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>223</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="5" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2635,20 +2711,20 @@
       <c r="A7" s="30">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>204</v>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>206</v>
+      <c r="F7" s="24" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2656,39 +2732,39 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
+      <c r="B9" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>211</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>186</v>
+      <c r="F9" s="5" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2699,16 +2775,16 @@
         <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2719,16 +2795,16 @@
         <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2736,19 +2812,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2756,19 +2832,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2776,19 +2852,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2796,19 +2872,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
+        <v>9</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2816,19 +2892,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
+        <v>126</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>228</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>166</v>
+      <c r="F16" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2836,19 +2912,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2856,19 +2932,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2876,19 +2952,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2896,19 +2972,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2916,19 +2992,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2936,19 +3012,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2956,19 +3032,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2976,19 +3052,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2996,19 +3072,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3016,19 +3092,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3036,19 +3112,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3056,19 +3132,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3076,19 +3152,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3099,16 +3175,16 @@
         <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3118,17 +3194,17 @@
       <c r="B31" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>220</v>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>221</v>
+      <c r="F31" s="24" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3139,16 +3215,16 @@
         <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3156,19 +3232,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" t="s">
-        <v>33</v>
+        <v>126</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
       </c>
-      <c r="F33" s="24" t="s">
-        <v>164</v>
+      <c r="F33" s="5" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3176,19 +3252,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" t="s">
-        <v>53</v>
+        <v>128</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
       </c>
-      <c r="F34" s="24" t="s">
-        <v>181</v>
+      <c r="F34" s="5" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3199,16 +3275,16 @@
         <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3216,19 +3292,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E36" s="5">
         <v>1</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3236,19 +3312,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="3">
-        <v>2</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>155</v>
+        <v>53</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3259,16 +3335,16 @@
         <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="3">
-        <v>2</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>143</v>
+        <v>19</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3279,16 +3355,16 @@
         <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="3">
-        <v>2</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>143</v>
+        <v>12</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3299,16 +3375,16 @@
         <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3318,17 +3394,17 @@
       <c r="B41" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>64</v>
+      <c r="C41" t="s">
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E41" s="3">
         <v>2</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -3336,19 +3412,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E42" s="3">
         <v>2</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3356,39 +3432,39 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>205</v>
+      <c r="B44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>207</v>
+      <c r="F44" s="25" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3396,19 +3472,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3416,39 +3492,39 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E46" s="3">
         <v>2</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" t="s">
-        <v>44</v>
+      <c r="B47" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>205</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
       </c>
-      <c r="F47" s="25" t="s">
-        <v>173</v>
+      <c r="F47" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3456,19 +3532,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E48" s="3">
         <v>2</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3476,39 +3552,39 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E49" s="3">
         <v>2</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>49</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>215</v>
+      <c r="B50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
       </c>
       <c r="E50" s="3">
         <v>2</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>218</v>
+      <c r="F50" s="25" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3516,19 +3592,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E51" s="3">
         <v>2</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3536,39 +3612,39 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E52" s="3">
         <v>2</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" t="s">
-        <v>55</v>
+      <c r="B53" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="E53" s="3">
         <v>2</v>
       </c>
-      <c r="F53" s="25" t="s">
-        <v>183</v>
+      <c r="F53" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3576,19 +3652,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E54" s="3">
         <v>2</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3596,19 +3672,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -3616,19 +3692,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="E56" s="3">
         <v>2</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3639,16 +3715,16 @@
         <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E57" s="3">
         <v>2</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3656,19 +3732,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E58" s="3">
         <v>2</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -3676,19 +3752,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E59" s="3">
         <v>2</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3699,36 +3775,36 @@
         <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E60" s="3">
         <v>2</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="30">
         <v>60</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="E61" s="11">
-        <v>3</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>217</v>
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3736,59 +3812,59 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="11">
-        <v>3</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>139</v>
+        <v>57</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>62</v>
       </c>
-      <c r="B63" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="E63" s="7">
-        <v>4</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>209</v>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="30">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" t="s">
-        <v>122</v>
-      </c>
-      <c r="D64" t="s">
-        <v>60</v>
-      </c>
-      <c r="E64" s="7">
-        <v>4</v>
-      </c>
-      <c r="F64" s="27" t="s">
-        <v>188</v>
+      <c r="B64" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E64" s="11">
+        <v>3</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -3799,36 +3875,36 @@
         <v>126</v>
       </c>
       <c r="C65" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="7">
-        <v>4</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>146</v>
+        <v>7</v>
+      </c>
+      <c r="E65" s="11">
+        <v>3</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="30">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" t="s">
-        <v>123</v>
-      </c>
-      <c r="D66" t="s">
-        <v>61</v>
+      <c r="B66" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>203</v>
       </c>
       <c r="E66" s="7">
         <v>4</v>
       </c>
-      <c r="F66" s="27" t="s">
-        <v>189</v>
+      <c r="F66" s="7" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3836,19 +3912,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E67" s="7">
         <v>4</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3859,16 +3935,16 @@
         <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D68" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E68" s="7">
         <v>4</v>
       </c>
       <c r="F68" s="27" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3876,19 +3952,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E69" s="7">
         <v>4</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3899,16 +3975,16 @@
         <v>126</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E70" s="7">
         <v>4</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3916,39 +3992,39 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C71" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="D71" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E71" s="7">
         <v>4</v>
       </c>
       <c r="F71" s="27" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="30">
         <v>71</v>
       </c>
-      <c r="B72" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>202</v>
+      <c r="B72" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
       </c>
       <c r="E72" s="7">
         <v>4</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>208</v>
+      <c r="F72" s="27" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3959,15 +4035,75 @@
         <v>126</v>
       </c>
       <c r="C73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="7">
+        <v>4</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="30">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" t="s">
+        <v>118</v>
+      </c>
+      <c r="D74" t="s">
+        <v>56</v>
+      </c>
+      <c r="E74" s="7">
+        <v>4</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="30">
         <v>74</v>
       </c>
-      <c r="D73" t="s">
+      <c r="B75" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E75" s="7">
+        <v>4</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="30">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E76" s="9">
         <v>5</v>
       </c>
-      <c r="F73" s="28" t="s">
+      <c r="F76" s="28" t="s">
         <v>147</v>
       </c>
     </row>

--- a/algorithms.xlsx
+++ b/algorithms.xlsx
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="200">
   <si>
     <t>Method</t>
   </si>
@@ -681,6 +681,24 @@
   </si>
   <si>
     <t>Greedy Semi-Soft GoDec Algotithm (Zhou and Tao, 2013)</t>
+  </si>
+  <si>
+    <t>STOC-RPCA</t>
+  </si>
+  <si>
+    <t>MoG-RPCA</t>
+  </si>
+  <si>
+    <t>OP-RPCA</t>
+  </si>
+  <si>
+    <t>Online Robust PCA via Stochastic Optimization (Feng et al. 2013)</t>
+  </si>
+  <si>
+    <t>Mixture of Gaussians RPCA (Zhao et al. 2014)</t>
+  </si>
+  <si>
+    <t>Robust PCA via Outlier Pursuit (Xu et al. 2012)</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1634,16 +1652,16 @@
         <v>125</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="E24" s="21">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1651,16 +1669,16 @@
         <v>125</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="21">
-        <v>0.54</v>
+        <v>198</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="20">
+        <v>2.15</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1668,67 +1686,67 @@
         <v>125</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="21">
-        <v>0.35</v>
+        <v>199</v>
+      </c>
+      <c r="D26" s="4">
+        <v>4</v>
+      </c>
+      <c r="E26" s="23">
+        <v>54.23</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="4">
-        <v>4</v>
-      </c>
-      <c r="E27" s="23">
-        <v>57.67</v>
+      <c r="B27" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="21">
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="4">
-        <v>4</v>
-      </c>
-      <c r="E28" s="23">
-        <v>27.71</v>
+      <c r="B28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="21">
+        <v>0.54</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-      <c r="E29" s="20">
-        <v>1.5</v>
+      <c r="B29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0.35</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1736,16 +1754,16 @@
         <v>125</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="21">
-        <v>0.06</v>
+        <v>141</v>
+      </c>
+      <c r="D30" s="4">
+        <v>4</v>
+      </c>
+      <c r="E30" s="23">
+        <v>57.67</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1753,565 +1771,565 @@
         <v>125</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="21">
-        <v>0.22</v>
+        <v>142</v>
+      </c>
+      <c r="D31" s="4">
+        <v>4</v>
+      </c>
+      <c r="E31" s="23">
+        <v>27.71</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="E32" s="20">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="21">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="21">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D35" s="4">
         <v>4</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E35" s="23">
         <v>45.9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="10" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="D33" s="4">
-        <v>4</v>
-      </c>
-      <c r="E33" s="23">
-        <v>46.31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="2">
-        <v>2</v>
-      </c>
-      <c r="E34" s="20">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="2">
-        <v>2</v>
-      </c>
-      <c r="E35" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="D36" s="4">
         <v>4</v>
       </c>
       <c r="E36" s="23">
+        <v>46.31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="20">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="E38" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="4">
+        <v>4</v>
+      </c>
+      <c r="E39" s="23">
         <v>39.880000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" s="10" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D40" s="4">
         <v>4</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E40" s="23">
         <v>47.18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="10" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="2">
-        <v>2</v>
-      </c>
-      <c r="E38" s="20">
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
+      <c r="E41" s="20">
         <v>1.62</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="10" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="2">
-        <v>2</v>
-      </c>
-      <c r="E39" s="20">
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+      <c r="E42" s="20">
         <v>1.59</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="10" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
-      <c r="E40" s="21">
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="21">
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="10" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="21">
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="21">
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="10" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
-      <c r="E42" s="21">
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="21">
         <v>0.03</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B46" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="18">
-        <v>1</v>
-      </c>
-      <c r="E43" s="25">
+      <c r="D46" s="18">
+        <v>1</v>
+      </c>
+      <c r="E46" s="25">
         <v>0.23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B47" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="2">
-        <v>2</v>
-      </c>
-      <c r="E44" s="20">
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="20">
         <v>2.48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B48" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D48" s="6">
         <v>3</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E48" s="22">
         <v>8.94</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B49" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="18">
-        <v>1</v>
-      </c>
-      <c r="E46" s="25">
+      <c r="D49" s="18">
+        <v>1</v>
+      </c>
+      <c r="E49" s="25">
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+    <row r="50" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B50" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D47" s="19">
-        <v>1</v>
-      </c>
-      <c r="E47" s="30">
+      <c r="D50" s="19">
+        <v>1</v>
+      </c>
+      <c r="E50" s="30">
         <v>0.54</v>
       </c>
-      <c r="F47" s="32"/>
-    </row>
-    <row r="48" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+      <c r="F50" s="32"/>
+    </row>
+    <row r="51" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B51" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D48" s="28">
-        <v>2</v>
-      </c>
-      <c r="E48" s="29">
+      <c r="D51" s="28">
+        <v>2</v>
+      </c>
+      <c r="E51" s="29">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F48" s="32"/>
-    </row>
-    <row r="49" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="F51" s="32"/>
+    </row>
+    <row r="52" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B52" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="34">
+      <c r="D52" s="34">
         <v>3</v>
       </c>
-      <c r="E49" s="35">
+      <c r="E52" s="35">
         <v>8.17</v>
       </c>
-      <c r="F49" s="32"/>
-    </row>
-    <row r="50" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
+      <c r="F52" s="32"/>
+    </row>
+    <row r="53" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B53" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C53" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="D50" s="36">
+      <c r="D53" s="36">
         <v>3</v>
       </c>
-      <c r="E50" s="37">
+      <c r="E53" s="37">
         <v>9.68</v>
       </c>
-      <c r="F50" s="32"/>
-    </row>
-    <row r="51" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="28">
-        <v>2</v>
-      </c>
-      <c r="E51" s="29">
-        <v>2.64</v>
-      </c>
-      <c r="F51" s="32"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
-      <c r="E52" s="21">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1</v>
-      </c>
-      <c r="E53" s="21">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="32"/>
+    </row>
+    <row r="54" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>126</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1</v>
-      </c>
-      <c r="E54" s="21">
-        <v>0.43</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D54" s="28">
+        <v>2</v>
+      </c>
+      <c r="E54" s="29">
+        <v>2.64</v>
+      </c>
+      <c r="F54" s="32"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>126</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="21">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="21">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="21">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="3">
-        <v>1</v>
-      </c>
-      <c r="E55" s="21">
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="21">
         <v>0.25</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B59" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D56" s="14">
-        <v>1</v>
-      </c>
-      <c r="E56" s="26">
+      <c r="D59" s="14">
+        <v>1</v>
+      </c>
+      <c r="E59" s="26">
         <v>0.08</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B60" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D57" s="19">
-        <v>1</v>
-      </c>
-      <c r="E57" s="30">
+      <c r="D60" s="19">
+        <v>1</v>
+      </c>
+      <c r="E60" s="30">
         <v>0.34</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B61" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D58" s="19">
-        <v>1</v>
-      </c>
-      <c r="E58" s="30">
+      <c r="D61" s="19">
+        <v>1</v>
+      </c>
+      <c r="E61" s="30">
         <v>0.31</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B62" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="D59" s="19">
-        <v>1</v>
-      </c>
-      <c r="E59" s="30">
+      <c r="D62" s="19">
+        <v>1</v>
+      </c>
+      <c r="E62" s="30">
         <v>0.62</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B63" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D60" s="14">
-        <v>1</v>
-      </c>
-      <c r="E60" s="26">
+      <c r="D63" s="14">
+        <v>1</v>
+      </c>
+      <c r="E63" s="26">
         <v>0.73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
-      <c r="E61" s="21">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="3">
-        <v>1</v>
-      </c>
-      <c r="E62" s="21">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" s="3">
-        <v>1</v>
-      </c>
-      <c r="E63" s="21">
-        <v>0.37</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2319,16 +2337,16 @@
         <v>127</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
       </c>
       <c r="E64" s="21">
-        <v>0.48</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2336,16 +2354,16 @@
         <v>127</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D65" s="2">
-        <v>2</v>
-      </c>
-      <c r="E65" s="20">
-        <v>1.21</v>
+        <v>36</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
+      <c r="E65" s="21">
+        <v>0.3</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2353,16 +2371,16 @@
         <v>127</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
       </c>
       <c r="E66" s="21">
-        <v>0.2</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2370,16 +2388,16 @@
         <v>127</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
       </c>
       <c r="E67" s="21">
-        <v>0.02</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2387,16 +2405,16 @@
         <v>127</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D68" s="3">
-        <v>1</v>
-      </c>
-      <c r="E68" s="21">
-        <v>0.05</v>
+        <v>39</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2</v>
+      </c>
+      <c r="E68" s="20">
+        <v>1.21</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2404,16 +2422,16 @@
         <v>127</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D69" s="2">
-        <v>2</v>
-      </c>
-      <c r="E69" s="20">
-        <v>1.8</v>
+        <v>40</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="21">
+        <v>0.2</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2421,16 +2439,16 @@
         <v>127</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D70" s="2">
-        <v>2</v>
-      </c>
-      <c r="E70" s="20">
-        <v>1.1499999999999999</v>
+        <v>41</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+      <c r="E70" s="21">
+        <v>0.02</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2438,16 +2456,16 @@
         <v>127</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
       </c>
       <c r="E71" s="21">
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2455,118 +2473,118 @@
         <v>127</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D72" s="3">
-        <v>1</v>
-      </c>
-      <c r="E72" s="21">
-        <v>0.04</v>
+        <v>43</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2</v>
+      </c>
+      <c r="E72" s="20">
+        <v>1.8</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B73" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D73" s="3">
-        <v>1</v>
-      </c>
-      <c r="E73" s="21">
-        <v>0.05</v>
+      <c r="B73" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2</v>
+      </c>
+      <c r="E73" s="20">
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D74" s="14">
-        <v>1</v>
-      </c>
-      <c r="E74" s="26">
-        <v>0.61</v>
+      <c r="B74" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1</v>
+      </c>
+      <c r="E74" s="21">
+        <v>0.24</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D75" s="2">
-        <v>2</v>
-      </c>
-      <c r="E75" s="20">
-        <v>2.14</v>
+      <c r="A75" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1</v>
+      </c>
+      <c r="E75" s="21">
+        <v>0.04</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+      <c r="E76" s="21">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77" s="14">
+        <v>1</v>
+      </c>
+      <c r="E77" s="26">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D76" s="2">
-        <v>2</v>
-      </c>
-      <c r="E76" s="20">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D77" s="3">
-        <v>1</v>
-      </c>
-      <c r="E77" s="21">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>49</v>
+      <c r="B78" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="D78" s="2">
         <v>2</v>
       </c>
       <c r="E78" s="20">
-        <v>3.5</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2574,101 +2592,101 @@
         <v>128</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D79" s="2">
         <v>2</v>
       </c>
       <c r="E79" s="20">
-        <v>3.31</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B80" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D80" s="15">
-        <v>2</v>
-      </c>
-      <c r="E80" s="27">
-        <v>4.88</v>
+      <c r="B80" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1</v>
+      </c>
+      <c r="E80" s="21">
+        <v>0.36</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D81" s="3">
-        <v>1</v>
-      </c>
-      <c r="E81" s="21">
-        <v>0.92</v>
+      <c r="A81" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="2">
+        <v>2</v>
+      </c>
+      <c r="E81" s="20">
+        <v>3.5</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2</v>
+      </c>
+      <c r="E82" s="20">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" s="15">
+        <v>2</v>
+      </c>
+      <c r="E83" s="27">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D82" s="2">
-        <v>2</v>
-      </c>
-      <c r="E82" s="20">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D83" s="2">
-        <v>2</v>
-      </c>
-      <c r="E83" s="20">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D84" s="4">
-        <v>4</v>
-      </c>
-      <c r="E84" s="23">
-        <v>48.43</v>
+      <c r="B84" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" s="3">
+        <v>1</v>
+      </c>
+      <c r="E84" s="21">
+        <v>0.92</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2676,16 +2694,16 @@
         <v>129</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D85" s="2">
         <v>2</v>
       </c>
       <c r="E85" s="20">
-        <v>4.45</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2693,16 +2711,16 @@
         <v>129</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D86" s="3">
-        <v>1</v>
-      </c>
-      <c r="E86" s="21">
-        <v>0.1</v>
+        <v>54</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2</v>
+      </c>
+      <c r="E86" s="20">
+        <v>2.92</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2710,16 +2728,16 @@
         <v>129</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D87" s="3">
-        <v>1</v>
-      </c>
-      <c r="E87" s="21">
-        <v>0.16</v>
+        <v>55</v>
+      </c>
+      <c r="D87" s="4">
+        <v>4</v>
+      </c>
+      <c r="E87" s="23">
+        <v>48.43</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2727,16 +2745,16 @@
         <v>129</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D88" s="4">
-        <v>4</v>
-      </c>
-      <c r="E88" s="23">
-        <v>29.83</v>
+        <v>56</v>
+      </c>
+      <c r="D88" s="2">
+        <v>2</v>
+      </c>
+      <c r="E88" s="20">
+        <v>4.45</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2744,16 +2762,16 @@
         <v>129</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D89" s="4">
-        <v>4</v>
-      </c>
-      <c r="E89" s="23">
-        <v>39.08</v>
+        <v>57</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1</v>
+      </c>
+      <c r="E89" s="21">
+        <v>0.1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2761,32 +2779,83 @@
         <v>129</v>
       </c>
       <c r="B90" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1</v>
+      </c>
+      <c r="E90" s="21">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D91" s="4">
+        <v>4</v>
+      </c>
+      <c r="E91" s="23">
+        <v>29.83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" s="4">
+        <v>4</v>
+      </c>
+      <c r="E92" s="23">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C93" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D90" s="2">
-        <v>2</v>
-      </c>
-      <c r="E90" s="20">
+      <c r="D93" s="2">
+        <v>2</v>
+      </c>
+      <c r="E93" s="20">
         <v>3.75</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B94" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C94" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D91" s="14">
-        <v>1</v>
-      </c>
-      <c r="E91" s="26">
+      <c r="D94" s="14">
+        <v>1</v>
+      </c>
+      <c r="E94" s="26">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -2799,7 +2868,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -3372,13 +3441,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="E27" s="19">
         <v>1</v>
@@ -3392,20 +3461,20 @@
       <c r="A28" s="42">
         <v>27</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>183</v>
+      <c r="B28" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="E28" s="19">
         <v>1</v>
       </c>
       <c r="F28" s="30">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="G28" s="32"/>
     </row>
@@ -3417,16 +3486,16 @@
         <v>183</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E29" s="19">
         <v>1</v>
       </c>
       <c r="F29" s="30">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="G29" s="32"/>
     </row>
@@ -3434,20 +3503,20 @@
       <c r="A30" s="42">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>125</v>
+      <c r="B30" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="E30" s="19">
         <v>1</v>
       </c>
       <c r="F30" s="30">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="G30" s="32"/>
     </row>
@@ -3459,10 +3528,10 @@
         <v>125</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E31" s="19">
         <v>1</v>
@@ -3477,19 +3546,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E32" s="19">
         <v>1</v>
       </c>
       <c r="F32" s="30">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="G32" s="32"/>
     </row>
@@ -3498,19 +3567,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E33" s="19">
         <v>1</v>
       </c>
       <c r="F33" s="30">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="G33" s="32"/>
     </row>
@@ -3519,19 +3588,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="E34" s="19">
         <v>1</v>
       </c>
       <c r="F34" s="30">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="G34" s="32"/>
     </row>
@@ -3540,13 +3609,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="E35" s="19">
         <v>1</v>
@@ -3564,16 +3633,16 @@
         <v>126</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E36" s="19">
         <v>1</v>
       </c>
       <c r="F36" s="30">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="G36" s="32"/>
     </row>
@@ -3582,63 +3651,63 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E37" s="19">
         <v>1</v>
       </c>
       <c r="F37" s="30">
-        <v>0.45</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>167</v>
-      </c>
+        <v>0.43</v>
+      </c>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E38" s="19">
         <v>1</v>
       </c>
       <c r="F38" s="30">
-        <v>0.48</v>
-      </c>
-      <c r="G38" s="32"/>
+        <v>0.45</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E39" s="19">
         <v>1</v>
       </c>
       <c r="F39" s="30">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="G39" s="32"/>
     </row>
@@ -3650,16 +3719,16 @@
         <v>125</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40" s="19">
         <v>1</v>
       </c>
       <c r="F40" s="30">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="G40" s="32"/>
     </row>
@@ -3667,14 +3736,14 @@
       <c r="A41" s="42">
         <v>40</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>162</v>
+      <c r="B41" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="E41" s="19">
         <v>1</v>
@@ -3688,20 +3757,20 @@
       <c r="A42" s="42">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>125</v>
+      <c r="B42" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E42" s="19">
         <v>1</v>
       </c>
       <c r="F42" s="30">
-        <v>0.57999999999999996</v>
+        <v>0.54</v>
       </c>
       <c r="G42" s="32"/>
     </row>
@@ -3710,19 +3779,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E43" s="19">
         <v>1</v>
       </c>
       <c r="F43" s="30">
-        <v>0.61</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G43" s="32"/>
     </row>
@@ -3730,20 +3799,20 @@
       <c r="A44" s="42">
         <v>43</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>183</v>
+      <c r="B44" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="E44" s="19">
         <v>1</v>
       </c>
       <c r="F44" s="30">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="G44" s="32"/>
     </row>
@@ -3751,20 +3820,20 @@
       <c r="A45" s="42">
         <v>44</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>125</v>
+      <c r="B45" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="E45" s="19">
         <v>1</v>
       </c>
       <c r="F45" s="30">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="G45" s="32"/>
     </row>
@@ -3772,20 +3841,20 @@
       <c r="A46" s="42">
         <v>45</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>183</v>
+      <c r="B46" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="E46" s="19">
         <v>1</v>
       </c>
       <c r="F46" s="30">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="G46" s="32"/>
     </row>
@@ -3793,20 +3862,20 @@
       <c r="A47" s="42">
         <v>46</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>126</v>
+      <c r="B47" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="E47" s="19">
         <v>1</v>
       </c>
       <c r="F47" s="30">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="G47" s="32"/>
     </row>
@@ -3815,23 +3884,21 @@
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>63</v>
+        <v>126</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E48" s="19">
         <v>1</v>
       </c>
       <c r="F48" s="30">
-        <v>0.78</v>
-      </c>
-      <c r="G48" s="32" t="s">
-        <v>167</v>
-      </c>
+        <v>0.74</v>
+      </c>
+      <c r="G48" s="32"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="42">
@@ -3840,17 +3907,17 @@
       <c r="B49" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>70</v>
+      <c r="C49" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E49" s="19">
         <v>1</v>
       </c>
       <c r="F49" s="30">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>167</v>
@@ -3861,13 +3928,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="E50" s="19">
         <v>1</v>
@@ -3875,26 +3942,28 @@
       <c r="F50" s="30">
         <v>0.92</v>
       </c>
-      <c r="G50" s="32"/>
+      <c r="G50" s="32" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E51" s="19">
         <v>1</v>
       </c>
       <c r="F51" s="30">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G51" s="32"/>
     </row>
@@ -3906,20 +3975,18 @@
         <v>125</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="28">
-        <v>2</v>
-      </c>
-      <c r="F52" s="29">
-        <v>1.03</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>167</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E52" s="19">
+        <v>1</v>
+      </c>
+      <c r="F52" s="30">
+        <v>0.93</v>
+      </c>
+      <c r="G52" s="32"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="42">
@@ -3929,18 +3996,20 @@
         <v>125</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E53" s="28">
         <v>2</v>
       </c>
       <c r="F53" s="29">
-        <v>1.07</v>
-      </c>
-      <c r="G53" s="32"/>
+        <v>1.03</v>
+      </c>
+      <c r="G53" s="32" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="42">
@@ -3950,16 +4019,16 @@
         <v>125</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E54" s="28">
         <v>2</v>
       </c>
       <c r="F54" s="29">
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="G54" s="32"/>
     </row>
@@ -3971,10 +4040,10 @@
         <v>125</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E55" s="28">
         <v>2</v>
@@ -3988,14 +4057,14 @@
       <c r="A56" s="42">
         <v>55</v>
       </c>
-      <c r="B56" s="16" t="s">
-        <v>162</v>
+      <c r="B56" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="E56" s="28">
         <v>2</v>
@@ -4009,20 +4078,20 @@
       <c r="A57" s="42">
         <v>56</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>127</v>
+      <c r="B57" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="E57" s="28">
         <v>2</v>
       </c>
       <c r="F57" s="29">
-        <v>1.1499999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G57" s="32"/>
     </row>
@@ -4034,16 +4103,16 @@
         <v>127</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E58" s="28">
         <v>2</v>
       </c>
       <c r="F58" s="29">
-        <v>1.21</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G58" s="32"/>
     </row>
@@ -4052,19 +4121,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>144</v>
+        <v>127</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="E59" s="28">
         <v>2</v>
       </c>
       <c r="F59" s="29">
-        <v>1.5</v>
+        <v>1.21</v>
       </c>
       <c r="G59" s="32"/>
     </row>
@@ -4075,17 +4144,17 @@
       <c r="B60" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>29</v>
+      <c r="C60" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="E60" s="28">
         <v>2</v>
       </c>
       <c r="F60" s="29">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="G60" s="32"/>
     </row>
@@ -4097,16 +4166,16 @@
         <v>125</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E61" s="28">
         <v>2</v>
       </c>
       <c r="F61" s="29">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="G61" s="32"/>
     </row>
@@ -4115,19 +4184,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E62" s="28">
         <v>2</v>
       </c>
       <c r="F62" s="29">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="G62" s="32"/>
     </row>
@@ -4136,19 +4205,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E63" s="28">
         <v>2</v>
       </c>
       <c r="F63" s="29">
-        <v>2.14</v>
+        <v>1.8</v>
       </c>
       <c r="G63" s="32"/>
     </row>
@@ -4157,42 +4226,40 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E64" s="28">
         <v>2</v>
       </c>
       <c r="F64" s="29">
-        <v>2.21</v>
-      </c>
-      <c r="G64" s="31" t="s">
-        <v>167</v>
-      </c>
+        <v>2.14</v>
+      </c>
+      <c r="G64" s="32"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="E65" s="28">
         <v>2</v>
       </c>
       <c r="F65" s="29">
-        <v>2.42</v>
+        <v>2.15</v>
       </c>
       <c r="G65" s="32"/>
     </row>
@@ -4200,41 +4267,43 @@
       <c r="A66" s="42">
         <v>65</v>
       </c>
-      <c r="B66" s="16" t="s">
-        <v>159</v>
+      <c r="B66" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="E66" s="28">
         <v>2</v>
       </c>
       <c r="F66" s="29">
-        <v>2.48</v>
-      </c>
-      <c r="G66" s="32"/>
+        <v>2.21</v>
+      </c>
+      <c r="G66" s="31" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="42">
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E67" s="28">
         <v>2</v>
       </c>
       <c r="F67" s="29">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="G67" s="32"/>
     </row>
@@ -4242,20 +4311,20 @@
       <c r="A68" s="42">
         <v>67</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>129</v>
+      <c r="B68" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="E68" s="28">
         <v>2</v>
       </c>
       <c r="F68" s="29">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="G68" s="32"/>
     </row>
@@ -4264,19 +4333,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E69" s="28">
         <v>2</v>
       </c>
       <c r="F69" s="29">
-        <v>3.31</v>
+        <v>2.64</v>
       </c>
       <c r="G69" s="32"/>
     </row>
@@ -4285,19 +4354,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E70" s="28">
         <v>2</v>
       </c>
       <c r="F70" s="29">
-        <v>3.5</v>
+        <v>2.92</v>
       </c>
       <c r="G70" s="32"/>
     </row>
@@ -4306,19 +4375,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E71" s="28">
         <v>2</v>
       </c>
       <c r="F71" s="29">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="G71" s="32"/>
     </row>
@@ -4330,16 +4399,16 @@
         <v>128</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E72" s="28">
         <v>2</v>
       </c>
       <c r="F72" s="29">
-        <v>3.69</v>
+        <v>3.5</v>
       </c>
       <c r="G72" s="32"/>
     </row>
@@ -4348,19 +4417,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E73" s="28">
         <v>2</v>
       </c>
       <c r="F73" s="29">
-        <v>3.75</v>
+        <v>3.58</v>
       </c>
       <c r="G73" s="32"/>
     </row>
@@ -4369,19 +4438,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>173</v>
+        <v>128</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c r="E74" s="28">
         <v>2</v>
       </c>
       <c r="F74" s="29">
-        <v>3.84</v>
+        <v>3.69</v>
       </c>
       <c r="G74" s="32"/>
     </row>
@@ -4393,16 +4462,16 @@
         <v>129</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E75" s="28">
         <v>2</v>
       </c>
       <c r="F75" s="29">
-        <v>4.45</v>
+        <v>3.75</v>
       </c>
       <c r="G75" s="32"/>
     </row>
@@ -4411,19 +4480,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>113</v>
+        <v>125</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>173</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="E76" s="28">
         <v>2</v>
       </c>
       <c r="F76" s="29">
-        <v>4.88</v>
+        <v>3.84</v>
       </c>
       <c r="G76" s="32"/>
     </row>
@@ -4431,20 +4500,20 @@
       <c r="A77" s="42">
         <v>76</v>
       </c>
-      <c r="B77" s="16" t="s">
-        <v>162</v>
+      <c r="B77" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E77" s="34">
-        <v>3</v>
-      </c>
-      <c r="F77" s="35">
-        <v>8.17</v>
+        <v>56</v>
+      </c>
+      <c r="E77" s="28">
+        <v>2</v>
+      </c>
+      <c r="F77" s="29">
+        <v>4.45</v>
       </c>
       <c r="G77" s="32"/>
     </row>
@@ -4453,42 +4522,40 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="34">
-        <v>3</v>
-      </c>
-      <c r="F78" s="35">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="G78" s="31" t="s">
-        <v>167</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E78" s="28">
+        <v>2</v>
+      </c>
+      <c r="F78" s="29">
+        <v>4.88</v>
+      </c>
+      <c r="G78" s="32"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="42">
         <v>78</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E79" s="34">
         <v>3</v>
       </c>
       <c r="F79" s="35">
-        <v>8.94</v>
+        <v>8.17</v>
       </c>
       <c r="G79" s="32"/>
     </row>
@@ -4496,41 +4563,43 @@
       <c r="A80" s="42">
         <v>79</v>
       </c>
-      <c r="B80" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>169</v>
+      <c r="B80" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="E80" s="34">
         <v>3</v>
       </c>
       <c r="F80" s="35">
-        <v>9.68</v>
-      </c>
-      <c r="G80" s="32"/>
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="42">
         <v>80</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="E81" s="38">
-        <v>4</v>
-      </c>
-      <c r="F81" s="44">
-        <v>27.71</v>
+      <c r="B81" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E81" s="34">
+        <v>3</v>
+      </c>
+      <c r="F81" s="35">
+        <v>8.94</v>
       </c>
       <c r="G81" s="32"/>
     </row>
@@ -4538,20 +4607,20 @@
       <c r="A82" s="42">
         <v>81</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E82" s="38">
-        <v>4</v>
-      </c>
-      <c r="F82" s="44">
-        <v>29.83</v>
+      <c r="B82" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E82" s="34">
+        <v>3</v>
+      </c>
+      <c r="F82" s="35">
+        <v>9.68</v>
       </c>
       <c r="G82" s="32"/>
     </row>
@@ -4562,21 +4631,19 @@
       <c r="B83" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>13</v>
+      <c r="C83" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="E83" s="38">
         <v>4</v>
       </c>
       <c r="F83" s="44">
-        <v>38.409999999999997</v>
-      </c>
-      <c r="G83" s="32" t="s">
-        <v>167</v>
-      </c>
+        <v>27.71</v>
+      </c>
+      <c r="G83" s="32"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="42">
@@ -4586,16 +4653,16 @@
         <v>129</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E84" s="38">
         <v>4</v>
       </c>
       <c r="F84" s="44">
-        <v>39.08</v>
+        <v>29.83</v>
       </c>
       <c r="G84" s="32"/>
     </row>
@@ -4607,37 +4674,39 @@
         <v>125</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E85" s="38">
         <v>4</v>
       </c>
       <c r="F85" s="44">
-        <v>39.880000000000003</v>
-      </c>
-      <c r="G85" s="32"/>
+        <v>38.409999999999997</v>
+      </c>
+      <c r="G85" s="32" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="42">
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E86" s="38">
         <v>4</v>
       </c>
       <c r="F86" s="44">
-        <v>45.9</v>
+        <v>39.08</v>
       </c>
       <c r="G86" s="32"/>
     </row>
@@ -4649,16 +4718,16 @@
         <v>125</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E87" s="38">
         <v>4</v>
       </c>
       <c r="F87" s="44">
-        <v>46.31</v>
+        <v>39.880000000000003</v>
       </c>
       <c r="G87" s="32"/>
     </row>
@@ -4670,16 +4739,16 @@
         <v>125</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E88" s="38">
         <v>4</v>
       </c>
       <c r="F88" s="44">
-        <v>47.18</v>
+        <v>45.9</v>
       </c>
       <c r="G88" s="32"/>
     </row>
@@ -4688,19 +4757,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E89" s="38">
         <v>4</v>
       </c>
       <c r="F89" s="44">
-        <v>48.43</v>
+        <v>46.31</v>
       </c>
       <c r="G89" s="32"/>
     </row>
@@ -4711,17 +4780,17 @@
       <c r="B90" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C90" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>141</v>
+      <c r="C90" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="E90" s="38">
         <v>4</v>
       </c>
       <c r="F90" s="44">
-        <v>57.67</v>
+        <v>47.18</v>
       </c>
       <c r="G90" s="32"/>
     </row>
@@ -4730,25 +4799,88 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C91" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91" s="38">
+        <v>4</v>
+      </c>
+      <c r="F91" s="44">
+        <v>48.43</v>
+      </c>
+      <c r="G91" s="32"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="42">
+        <v>91</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E92" s="38">
+        <v>4</v>
+      </c>
+      <c r="F92" s="44">
+        <v>54.23</v>
+      </c>
+      <c r="G92" s="32"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="42">
+        <v>92</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E93" s="38">
+        <v>4</v>
+      </c>
+      <c r="F93" s="44">
+        <v>57.67</v>
+      </c>
+      <c r="G93" s="32"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="42">
+        <v>93</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D94" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="39">
+      <c r="E94" s="39">
         <v>5</v>
       </c>
-      <c r="F91" s="45">
+      <c r="F94" s="45">
         <v>168.9</v>
       </c>
-      <c r="G91" s="32"/>
+      <c r="G94" s="32"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G91">
-    <sortCondition ref="F2:F91"/>
+  <sortState ref="A2:G94">
+    <sortCondition ref="F2:F94"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
